--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_plv_by_basic_fm_linear_ratio_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_plv_by_basic_fm_linear_ratio_rcm.xlsx
@@ -49,6 +49,27 @@
     <sheet name="rational_quadratic_sr_0.25" sheetId="40" state="visible" r:id="rId40"/>
     <sheet name="generalized_gaussian_sr_0.25" sheetId="41" state="visible" r:id="rId41"/>
     <sheet name="sigmoid_sr_0.25" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="exponential_sr_0.2" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="gaussian_sr_0.2" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="inverse_sr_0.2" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="powerlaw_sr_0.2" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="rational_quadratic_sr_0.2" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="generalized_gaussian_sr_0.2" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="sigmoid_sr_0.2" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="exponential_sr_0.15" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="gaussian_sr_0.15" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="inverse_sr_0.15" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="powerlaw_sr_0.15" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="rational_quadratic_sr_0.15" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="generalized_gaussian_sr_0.15" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="sigmoid_sr_0.15" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="exponential_sr_0.1" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="gaussian_sr_0.1" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="inverse_sr_0.1" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="powerlaw_sr_0.1" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="rational_quadratic_sr_0.1" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="generalized_gaussian_sr_0.1" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="sigmoid_sr_0.1" sheetId="63" state="visible" r:id="rId63"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13410,6 +13431,2456 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>77.78899471448715</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5636127477511763</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7778899471448715</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7710446100984646</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>63.90401301049317</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8343140248209238</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6390401301049317</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6288222159215153</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>82.50737463126843</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4185414266772568</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8250737463126843</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8193919914718967</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>81.41592920353983</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4509978852700442</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8141592920353983</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8117919586095461</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>81.76991150442477</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4389257691334933</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8176991150442477</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8149153463725393</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.96460176991151</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3540114442196985</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.879646017699115</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8738342785633758</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>71.59534252026403</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6850988493611416</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7159534252026402</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7152323393275357</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>73.5103244837758</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7138682541282227</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7351032448377581</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7234175741655238</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>79.70501474926253</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5674730175873265</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7970501474926254</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.786999118480648</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>85.87020648967551</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3679084346513264</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8587020648967553</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.854604490008076</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>73.5145632747688</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7973984767061968</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7351456327476882</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.727376198454438</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>69.23892075190962</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7078135173767806</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6923892075190962</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6810756152856133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>90.29498525073747</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2823637809487991</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9029498525073747</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9001321660839808</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94.98525073746313</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1366245259074882</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9498525073746313</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9499922225235025</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.24934471751486</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1839143192465675</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9424934471751486</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9395110476162921</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>80.5543185206331</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5001910982524295</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8055431852063311</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7998760781988632</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.52801494822619</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.578015660494566</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.785280149482262</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7829736828245933</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>66.7604391041445</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7785443221529326</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6676043910414451</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6480891766030417</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>82.71403731866192</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3901836674350003</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8271403731866191</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8213793542095342</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>79.38174205659217</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4976663369530191</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7938174205659219</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.786112460272004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>75.01613335755499</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.856737351929769</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7501613335755499</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7326317454824878</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.64601769911505</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.300043565055239</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8964601769911503</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8923265545232295</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>70.56168305954205</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8519390761852265</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7056168305954204</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6899524511099614</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>76.22453481431501</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5977610227651894</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.76224534814315</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7523766480640232</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>79.08554572271387</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4994066185240323</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7908554572271387</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7875993657017376</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.98559676121765</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3592597464720408</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8498559676121765</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8506126831814079</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>72.52285919428368</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.833010076979796</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7252285919428368</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7179076834910432</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>70.53477971262728</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6873968976239364</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7053477971262727</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6884290020526087</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>90.24515783008503</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2789259896186801</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9024515783008503</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9018161874761988</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>93.00884955752213</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1915595008290742</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9300884955752213</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9292238460376587</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.23817680083738</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2443465330823528</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9323817680083739</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9317071775185382</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>80.16357119582926</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5296530910733902</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8016357119582926</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7942092012365377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.88286230849748</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5067349623267849</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7888286230849748</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7883462420844692</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>67.33172432287476</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7621708422899246</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6733172432287476</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6584474975241249</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>81.80010207700758</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.461518283188343</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8180010207700759</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8131265991789782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>79.03243107639339</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4970108466843763</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7903243107639339</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7879058527174747</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>81.82890855457228</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4645152952502637</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8182890855457228</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8091937234900379</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>88.73225546933797</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3372798573225737</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8873225546933797</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8827543246836729</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>73.78065554200296</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6858257558196783</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7378065554200296</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7274836411263489</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>75.60558482339812</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6035487548137703</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7560558482339813</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7507058340881991</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>75.25108348688137</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.674587189592421</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7525108348688138</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.738654950410878</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82.36005501777697</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4229549245132754</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8236005501777697</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8237865838984566</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>81.12094395280236</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5386284627951682</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8112094395280236</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8082482077154414</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>64.60600870249742</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.851839559401075</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6460600870249743</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6323013612891166</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>90.85545722713864</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.233737400744576</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9085545722713864</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9089559553880047</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.168077382943981</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9323980767130647</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.70428809937802</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1301600037773217</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9570428809937802</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9568815842244891</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>80.68171293292617</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4892393014309022</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.806817129329262</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8012793623021838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.11244041903477</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5191143591733028</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7811244041903477</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7773200614647713</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>67.91996470557703</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7078125353902578</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6791996470557704</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6688566154120446</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>81.15061548975338</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4552125339241077</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8115061548975337</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8099697494543573</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>84.65012673120009</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3846698857222994</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8465012673120009</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8468889411137743</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>81.44542772861357</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6052095730983031</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8144542772861356</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7982727181345147</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.69616519174042</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4173739499102037</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8669616519174042</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8605179030745909</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>75.45722713864306</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7307644368615002</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7545722713864307</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7396072470950916</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>80.20648967551622</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5047050199626635</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8020648967551622</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7967853537429439</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81.88980873536968</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4698841557838023</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8188980873536968</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8110110892739698</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>81.3571051652696</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4783489842627507</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8135710516526959</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8106975164524725</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>80.76713466379468</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5408683885664989</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8076713466379466</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8086299259007257</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>74.83793112397166</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5942507707824309</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7483793112397166</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7317438919852635</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>94.45427728613569</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1888105297116757</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.944542772861357</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9439854575435997</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.8141592920354</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.09375049359975189</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9681415929203541</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9682159028379063</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.93336447547124</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1135306352719757</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9693336447547125</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9692909800820461</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>82.84614918814175</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4536204168014349</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8284614918814177</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8227862235712049</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.17178349293678</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5189045539707877</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7817178349293679</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7758300444634157</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>69.50423446569607</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7026777766644955</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6950423446569607</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6741917029062954</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>82.53791122760578</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4045511626948913</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8253791122760579</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8212613163811442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>82.00589970501474</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4274519441028436</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8200589970501475</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8174774345983238</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>77.43380133046134</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7558227085663627</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7743380133046134</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.768587387147219</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.97636657756554</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3608742157152544</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8797636657756556</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8722690916211013</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>73.65833614477634</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7995412456492583</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7365833614477634</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7179620399233325</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>72.77303436880942</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6813707776057224</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7277303436880942</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7216489783132596</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>76.72652877620048</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5819146860390901</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7672652877620049</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7560060213567456</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>79.33450981409874</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5303699290690322</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7933450981409874</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7917931406922184</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>78.84973053400117</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5821962535381318</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7884973053400116</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7898022044251692</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>72.18652410487979</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6579396060978373</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.721865241048798</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7125998474272102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>88.21425790880544</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3123406184914833</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8821425790880545</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8813704237266589</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.94985250737463</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1981571785293151</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9294985250737463</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9287365990033141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.96217095303594</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1116565977631884</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9696217095303593</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9695237387262872</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>80.61899612741746</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5083846169665128</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8061899612741749</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7999373313807798</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>77.05066652825717</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5584988469102731</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7705066652825716</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7690632540080599</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>63.61923546051437</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8415176856021086</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6361923546051437</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6177005362193053</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>76.31917231117916</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6097814946901053</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7631917231117916</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7562223079907742</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>78.79592384017162</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5585319953660171</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7879592384017162</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7828084196455414</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>79.33727800413499</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5551121399582674</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7933727800413498</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7842623570116996</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.41521985484303</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3167181021553309</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8941521985484304</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8883875129990606</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>67.1021375617436</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8509595042715471</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6710213756174361</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6690140803672622</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>71.98608984506787</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6785229405388236</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7198608984506787</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7125111785949878</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>77.64063702973209</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.551093701661254</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7764063702973208</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7674701595447759</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.56984056955511</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4409574084061508</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.835698405695551</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8337027119601114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>80.14956876789591</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.59197551595668</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8014956876789592</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.793501149252015</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>65.3763440860215</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8355400202174982</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.653763440860215</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6298702312575808</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>90.97345132743362</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2643396851014889</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9097345132743364</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9086918319429504</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.74336283185841</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1872392182548841</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9274336283185841</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9284367261219828</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.64029100597756</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.08523526183331948</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9764029100597756</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9762459717191934</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>79.44794793495907</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5284015680615831</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7944794793495906</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7878592285756867</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>79.41158660542047</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5199389613699168</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7941158660542047</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.783362506470217</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>61.6823674945285</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9425707762440046</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.616823674945285</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5988373589876563</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>79.76660697756901</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4672297084704041</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7976660697756901</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7977598407362803</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>79.35483870967741</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4897142560027229</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7935483870967742</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7929321163880958</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>80.44663016116057</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4667968654292053</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8044663016116056</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8018417606505664</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.35398230088495</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.285843330208445</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9035398230088495</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9011752102991876</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>73.09751814462064</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7237118423450738</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7309751814462062</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7286979999458367</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>75.78222995008608</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5851851677056402</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7578222995008608</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7546941706949191</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>71.27648163046393</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7816236966600021</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7127648163046393</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6966821426448757</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.72011003555394</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4015232410592337</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8472011003555394</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8470030722549484</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>80.0589970501475</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6047238974831999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.800589970501475</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7902584771695992</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>65.67375150304068</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7916153562565644</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6567375150304068</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6488233141596105</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>87.81814721580636</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3539759182662238</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8781814721580636</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8743302237763448</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>87.39400859869031</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4755784497596324</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8739400859869029</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8610240614428104</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.87538819539961</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1468659008998657</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.948753881953996</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9480624698391658</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>79.44750963820333</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5357931578773424</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7944750963820332</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7883656483640077</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -13753,6 +16224,3506 @@
       </c>
       <c r="E17" t="n">
         <v>0.9195744585369963</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>70.32370522236351</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7162235045805574</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7032370522236351</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6991714002814894</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>65.68430522755388</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7821957687536875</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6568430522755387</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.645317095562284</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>77.68241939809168</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5308828895290693</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7768241939809168</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7766337879135762</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>70.7537262433066</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7031444569428762</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.707537262433066</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7030641835961016</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>76.64305054541994</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5974067279137671</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7664305054541994</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7628302964965218</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>84.99269024818554</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3901284851754705</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8499269024818554</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8485832507661939</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>66.69806832239033</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8775075421668589</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6669806832239034</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6573716525969665</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>65.07954221057275</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9563799619674682</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6507954221057275</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6396400478472843</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>75.90057007413559</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6451479638926685</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.759005700741356</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.749617439125472</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>75.91994740438932</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5629448908691606</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7591994740438931</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7607212789986548</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>77.64115606536389</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5925646727594237</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7764115606536388</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7727738241345088</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.21164542945874</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7542218392093976</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6621164542945873</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6569061654127148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>87.41312641112812</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3608226746010283</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8741312641112813</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8726883594991595</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>90.86151264284294</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2421891794539988</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9086151264284293</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9088705381682651</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.76293047517711</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1535873510942717</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9476293047517712</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9476695001699136</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>76.43789306135866</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5910231939273135</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7643789306135866</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7601239213712738</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>68.48631908580525</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.772912931558676</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6848631908580524</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6740634138780048</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>63.85799185114058</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7690012728174527</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6385799185114058</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6277071439827127</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>70.45216654123305</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7111711168972155</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7045216654123305</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6933101122722827</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>70.47855085251602</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7160771228373051</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7047855085251602</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.703916740293421</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>72.28937966591407</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7303305426302056</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7228937966591407</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7106659874557107</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>83.43826503689479</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4304760546113054</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8343826503689478</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8310597208684601</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>63.67165805932577</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9504264754553636</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6367165805932578</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6361685447100794</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>65.92029342814384</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8794721225897471</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6592029342814384</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6529992880477983</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>67.67748855958962</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9818506335529188</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6767748855958962</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6559111269253912</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>71.33824687064767</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7346484959746401</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7133824687064767</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7095974025028075</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>75.36942361093089</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6265713501100738</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.753694236109309</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7540485042509882</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>64.35150823104007</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8649597391486168</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6435150823104007</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6316835270867853</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>86.4063702973209</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3822962624079082</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.864063702973209</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8645107778302787</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.18687012863434</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2041349701505775</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9218687012863434</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9217472265705775</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.19260547236567</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1284427840117132</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9519260547236568</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9503954474520822</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>74.07447584610017</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6588514583169148</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7407447584610016</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.734518997608492</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>70.31453559286845</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7233160065331806</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7031453559286845</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6962663650692034</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>57.44184638275418</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9135571215922633</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5744184638275417</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5652171716565045</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>69.74039567816331</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7501910575355093</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.697403956781633</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6938146948295032</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>71.21549494372789</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6592139862477779</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7121549494372789</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.712665332820874</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>73.78671095770724</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6455927761892478</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7378671095770725</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7375110814592227</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.0477166757498</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3944527791502576</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.860477166757498</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8578847179742344</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>65.57764340521977</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8958280944575867</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6557764340521977</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.65144243508477</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>70.71211688682428</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6780365419884522</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7071211688682428</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7039172728859369</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>71.92138340297062</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6870453283190727</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7192138340297062</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.706356337754614</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>75.21630809955103</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5747173914064965</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7521630809955103</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7495759377388445</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>69.96833882646044</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8005363209793964</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6996833882646044</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7003766500004595</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>63.17779565567177</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.824791602169474</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6317779565567176</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6266006836590527</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>88.76106194690266</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2876716540350268</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8876106194690265</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8881174508834914</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>90.33572954783345</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2460808073791365</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9033572954783345</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.903475088459637</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.11224145537591</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1416480785035674</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9511224145537591</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9508400721345511</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>74.62195463051872</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6148453030990965</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7462195463051873</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.74293741949406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>72.42052266888122</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7001383048171799</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7242052266888122</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.716857472533425</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>61.50053201152259</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9002645529806614</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6150053201152259</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6023750714147953</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>78.94237839427676</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4918456820150216</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7894237839427677</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7874990107029231</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>72.95556189932439</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6450740737219651</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7295556189932439</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7299964751797405</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>76.76000657445134</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5717307411755125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7676000657445133</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7594138240680495</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.90905630671546</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3412859652191401</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8690905630671546</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8678421086918826</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>70.05968909765656</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8604138666143021</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7005968909765656</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6880959199826144</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>72.45374094931617</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6691924458990495</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7245374094931617</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7213591131852921</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>76.28993330392132</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6191631344457468</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7628993330392131</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7499298656217388</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>77.81918528706996</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5540721416473389</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7781918528706996</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7777266054512169</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>76.72652877620048</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6239661570327978</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7672652877620049</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7600010949950868</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>70.6550229673267</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6895159217218558</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7065502296732671</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7035579284607071</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>88.31858407079646</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3196637058397755</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8831858407079647</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8823030559231443</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.5080666787775</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1944503881502896</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.925080666787775</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9256905142514957</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.84069066341405</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1643769664457068</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9384069066341404</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9363830577589358</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>77.87729997664339</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5563436031817562</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7787729997664339</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7739354078814031</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>69.73096653085234</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.752881832420826</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6973096653085233</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6938276637831595</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>63.35167259232346</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8028704444567362</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6335167259232346</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.624952962192499</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>75.44520281317313</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5625739050408204</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7544520281317313</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7471699458411064</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>70.18771788683293</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7015038082997005</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7018771788683293</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6901113204195158</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>75.86129637799635</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6037253226463993</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7586129637799635</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7555855704917765</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.22453481431501</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3860673182702158</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8622453481431499</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8597910572449112</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>62.60330971721208</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.129975331823031</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6260330971721209</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6023538924211171</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>68.38277147726191</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7795052340254187</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6838277147726192</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6768017146091789</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>69.61989290564797</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7961397842814525</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6961989290564797</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6845067502056525</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>75.57833545272884</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.614160605178525</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7557833545272883</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7523034826055641</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>76.25559044628415</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6672024430086215</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7625559044628414</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7614287423790266</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.18751027258021</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7726645622402429</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6618751027258021</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6493645200180991</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>87.40430280538759</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3785761224882057</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8740430280538758</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8697547417240516</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>93.06819263142414</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1769649734487757</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9306819263142415</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9290906355280747</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.16691320859177</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1438272485140866</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9516691320859177</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9517939004553947</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>75.67121399550746</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6179092624095371</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7567121399550746</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7499224599946085</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>66.934835076428</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8263158659140268</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6693483507642799</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6626420530589382</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>59.37906037249458</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8781078300749263</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5937906037249456</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5814555611264135</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>76.40585126168911</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5314594323436419</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7640585126168912</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7619366925929764</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>68.65535168989351</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7288867006699244</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6865535168989351</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6824334899202891</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>77.61217657592195</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5911909169207017</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7761217657592193</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7750361169253164</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>84.8496959316257</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4215917605596284</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8484969593162571</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8427757851826149</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>59.87171169300773</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.088582529127598</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5987171169300772</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5961572814588757</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>66.42124931876573</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7913529254496098</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6642124931876573</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6591192411989428</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>70.75061202951584</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7259620002781351</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7075061202951582</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6985094808753051</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>79.49973615688717</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.502805451862514</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7949973615688717</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7969206258889351</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>72.56879384769765</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7568556348482768</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7256879384769764</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7166161233918709</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>60.73910673967767</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9004310382219651</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6073910673967767</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5895229651129656</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>89.38243410410125</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2748086631608506</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8938243410410125</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8929806789535494</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>89.97067448680352</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2486635668838668</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8997067448680351</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8992423952436827</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.35220027854913</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1751856036590956</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9435220027854913</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9432462307438391</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>74.4928993042039</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6294799946649839</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.744928993042039</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7399063147783009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>66.26406802827015</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8354476972172658</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6626406802827014</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6468194440512899</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>62.47519442209707</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.798826043556134</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6247519442209708</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6160285149844591</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>72.13167933978669</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6616393742461999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7213167933978667</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7175422617659872</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>67.82921997595135</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8125907368957996</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6782921997595135</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6600156232243607</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>76.13863441725275</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6284565384189288</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7613863441725275</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7544073736329</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.67497988736928</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3454464278649539</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8767497988736928</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8744453854416557</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>62.95469683993806</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8661223441362381</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6295469683993806</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6234919566183396</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>69.65016998416942</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6780953528980415</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6965016998416942</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.69394889141732</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>72.04456785958357</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7042106593338151</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7204456785958356</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7098417498483223</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>76.3494493897006</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5563578770185511</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7634944938970061</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.761868817012652</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>70.74611372070693</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7547778155654669</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7074611372070693</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.704488627543318</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>57.5011894566562</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.050989730718235</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.575011894566562</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5563816219163948</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>88.67308540731321</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2907388033927418</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.886730854073132</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8859376706508788</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>87.37056548932085</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3615789980317156</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8737056548932085</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8689596356781941</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.90366698673864</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1688246203625264</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9390366698673864</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9371201614378297</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>74.11381874699032</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6342735346437743</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7411381874699032</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7340865156815936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>54.55202899679063</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.003185725212097</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5455202899679062</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5408345459873166</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>54.14839228713051</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9098836342493692</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5414839228713051</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5220991681840148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>66.10282095865881</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7874345128734908</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6610282095865881</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.660174495426685</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>55.38473516206888</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9861164629459381</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5538473516206888</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5499361851858506</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>61.29681052604261</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9227155516544977</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6129681052604261</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6091379170102493</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>74.94580402944663</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5929458590845267</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7494580402944662</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7433636744463965</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>51.56852567928788</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.065443078676859</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5156852567928788</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5098996403209916</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>54.9931227778787</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9914609491825104</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.549931227778787</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5366938710635635</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>54.20237199283731</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9823933879534403</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5420237199283731</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.533927640485596</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>64.09778631303038</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8205481171607971</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6409778631303039</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.63626536982898</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60.35856711563249</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8910701940457025</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6035856711563248</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6026403215938896</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52.6981202259535</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.009949947396914</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5269812022595352</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5210305678100926</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>80.66246247804911</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4710338878134886</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8066246247804912</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8051420387965319</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>83.34752030726909</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3906578844956433</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8334752030726909</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8336307778495918</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.16273497175581</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2234430717149129</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9216273497175582</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9212456164092018</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>64.03478692145548</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8032188176306793</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.640347869214555</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6350681220265968</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>57.67437434579883</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8914465516805649</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5767437434579884</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5745561967624127</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>53.2615334042682</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9464188585678736</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.532615334042682</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5097079679851434</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>59.97716243220098</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8330524583657584</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5997716243220097</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.593432658470632</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>47.86953174335419</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.037092332045237</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4786953174335418</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4742993319753808</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>61.71186601960225</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9254382421573002</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6171186601960225</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5986328519645716</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>67.07990553551501</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7411710744102796</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6707990553551502</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6680553478400928</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>54.1541881850189</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.008000932137171</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.541541881850189</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5348008990726636</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>54.92910838329051</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.991835942864418</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5492910838329051</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5354296274283896</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>49.86868398515558</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.118282928069433</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4986868398515558</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4772582999368374</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>61.7760534260677</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.859816512465477</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.617760534260677</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6161056331211763</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>53.11006150572236</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.070182087024053</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5311006150572236</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5233519089948595</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>53.67122552963261</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9866808980703354</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5367122552963262</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5245250443093668</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>81.78271438334242</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4428867993255457</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8178271438334243</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8144443515932547</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>78.48182077699634</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5455591959257922</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7848182077699634</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7829295181513067</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>84.97339942387046</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3683768947899807</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8497339942387045</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8500804611204007</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>61.35477527198908</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8510827805266146</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6135477527198908</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6051740065817659</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>57.0229846278947</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9430719077587127</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.570229846278947</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5648566178607927</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>49.22732895613284</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.027820759018262</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4922732895613284</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4774471563965607</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60.12569312883329</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8428579735259214</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6012569312883329</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5900291024631894</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>48.04600385816487</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.06074070930481</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4804600385816486</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4743955900610649</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>61.68063737575585</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8894567638635635</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6168063737575584</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6089938105864735</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>66.72869142466631</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7537321165204048</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6672869142466631</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6616521429165656</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>46.91554425211291</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.177404101689657</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.469155442521129</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4624764796950889</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>51.43054870716875</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.046150702238083</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5143054870716874</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5027926532746074</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>50.84161627695742</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.076513109604518</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5084161627695741</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4994195532634761</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.18851374146836</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.853355290989081</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6218851374146835</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6147107563646825</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>56.34936288376197</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.017713162302971</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5634936288376198</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5593859464180251</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52.40313497521605</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9987139066060383</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5240313497521605</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5181262904681735</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>81.10961167484147</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4541961884746948</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8110961167484148</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8115081486643895</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>79.60276472979869</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4996276989579201</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.796027647297987</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7940176063922306</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>84.35254630230365</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3697584408684634</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8435254630230367</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8425942515363418</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>60.53499886100514</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8674075221148734</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6053499886100514</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5988270737574442</v>
       </c>
     </row>
   </sheetData>
@@ -14110,6 +20081,1406 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>58.82498983555221</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9195783505837122</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5882498983555221</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5811080083016373</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50.37136999455013</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9667913282910983</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5037136999455012</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4772611486064144</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60.12725023572868</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8702519044280053</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6012725023572868</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5960533232825724</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>56.1501397070909</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9707294503847758</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.561501397070909</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.558877576148576</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>60.85848493499079</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9068411186337471</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6085848493499079</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5980114587821721</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>74.71414112578829</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6040208878616491</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7471414112578828</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.742135726167366</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>52.45486552651839</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.039287477731705</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5245486552651839</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5149554366245329</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53.95911729340219</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.006582383314769</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5395911729340219</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5307499831622496</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>55.2344743466639</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.000735627611478</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.552344743466639</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5347137131584013</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>63.01827870483309</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8701458354791006</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6301827870483309</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.627189149068381</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>61.30857533369666</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9288850650191307</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6130857533369666</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6079698551871608</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>53.02589122743276</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9738881389300028</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5302589122743276</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5253564886608639</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>81.66662341369735</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4636969823390246</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8166662341369735</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8173493918549732</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>84.2298808813225</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3932777734473348</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8422988088132251</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8424311315288595</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.07614252718449</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2237147053858886</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9207614252718448</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9208231970387215</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>63.86801500589683</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.809228468629428</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6386801500589683</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6316657058381921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>58.64540350695076</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9046742935975394</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5864540350695076</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5849222944856364</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>53.85444510765664</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.913532860080401</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5385444510765665</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5297252342012171</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>58.79670239361932</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8901409486929575</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5879670239361932</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5809148797384427</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>48.78415903251759</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.034158418575923</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4878415903251758</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4820406658664173</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.47657851711519</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9098632633686066</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.624765785171152</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6141786662633816</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>65.69901123712143</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8087584535280863</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6569901123712143</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6475231970300858</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>49.82759366430506</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.187523491183917</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4982759366430505</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4886483644709984</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>54.46578257597385</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.017966576417287</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5446578257597384</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5290299353576018</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>53.57511743181169</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.028726108868917</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5357511743181169</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5297033925129727</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>65.57375063798131</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7610529432694118</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.655737506379813</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6564717677121144</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54.84476509312365</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.071229041616122</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5484476509312365</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5465726458974374</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>54.96777653785932</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9900233050187429</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5496777653785933</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5395351390136511</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>81.33902542409535</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4384787236650786</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8133902542409537</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8135702541243773</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>79.18874730750267</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5110840025047461</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7918874730750266</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7907669284286029</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>82.97788043149163</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4019535494036973</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8297788043149161</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8257400586452244</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>61.66778259327503</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8579443986527622</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6166778259327503</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6106228949165441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>55.31812558932171</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.002108995119731</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.553181255893217</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5480643399551146</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>51.76126091056151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9619876990715662</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5176126091056151</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5032154956566737</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60.74239396534572</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8333171337842942</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6074239396534573</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6056407701356461</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>47.5419337537522</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.046181706587473</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.475419337537522</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.463442232276123</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>61.76930596285435</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9308945248524347</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6176930596285435</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.598086139633103</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>67.72696995648751</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7379190032680829</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.677269699564875</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.670140170270373</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>47.67714253583509</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.198012240727742</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4767714253583509</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4661698683342892</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>50.87163383766296</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.058622642358144</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5087163383766296</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5034330726531752</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>51.60044637064334</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.07795249025027</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5160044637064334</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5078878058334312</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>64.84216991496467</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7925430774688721</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6484216991496466</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6485502025392418</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>53.22649849912197</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0586230357488</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5322649849912195</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.526013876383816</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>55.67418403273384</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9659410357475281</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5567418403273384</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5501073837732022</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>79.55189923788268</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4963493460478882</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7955189923788268</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7931892276880192</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>78.21408489692817</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5307866839071115</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7821408489692818</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7823230560041722</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>84.41085130494208</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3877268769099221</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8441085130494208</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8416057734173055</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>60.72859338460251</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8719310994566574</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6072859338460252</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6005246276369124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>53.7842022854869</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.003100160757701</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5378420228548689</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.520523607278604</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>53.1723457815379</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9067571500937144</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5317234578153791</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5236952489626346</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>57.68181385652125</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9043662567933402</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5768181385652125</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5736609547695685</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>49.87266325833269</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.043596376975378</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4987266325833268</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4956042859322561</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>61.03391897853787</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9103815818826357</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6103391897853788</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5992325516687689</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>67.96711044213185</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7553040931622188</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6796711044213185</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6657820865092665</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>46.76234223479442</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.183728216091792</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4676234223479442</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4549060171537745</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>51.13331430202683</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.067609978715579</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5113331430202683</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.49437888796306</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>52.49128452668275</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.07025171816349</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5249128452668276</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.512968151922979</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>61.42155208955095</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8409694463014603</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6142155208955095</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6099855791533428</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>57.87947992629694</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9247243165969848</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5787947992629695</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.575359301760461</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52.63583595013797</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.012225048740705</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5263583595013798</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5110327261164522</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>81.78686666839678</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4630224607884884</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8178686666839677</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8158698607605507</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>78.92187648682082</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5183505320300659</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7892187648682082</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7885233156981462</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>85.47418230261508</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3389716443140059</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8547418230261508</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8538123552850608</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>60.8012526059914</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.862890598760504</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6080125260599141</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5996889953956618</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
